--- a/biology/Zoologie/Cerque/Cerque.xlsx
+++ b/biology/Zoologie/Cerque/Cerque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cerques, ou forceps[1], sont des appendices situés à l'extrémité de l'abdomen de l'insecte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cerques, ou forceps, sont des appendices situés à l'extrémité de l'abdomen de l'insecte.
 Le mot vient du grec ancien « kerkos » qui signifie « queue ».
 Les cerques des plus représentatifs sont ceux des dermaptères (perce-oreilles). Ils sont dans la plupart des cas au nombre de trois, mais seulement deux chez les diploures. Certains éphémères ont perdu leur cercode central, qui a laissé place à l'appareil génital, qui apparait lors du passage au stade d'imago.
 Ils sont aussi présents chez les neuroptères (fourmilions).
-Organes sensoriels permettant de se situer dans leur environnement, ils peuvent jouer un rôle dans l'accouplement, être utilisés comme moyens de défense (comme chez le pince-oreille) ou être réduits à une structure vestigiale[2].
+Organes sensoriels permettant de se situer dans leur environnement, ils peuvent jouer un rôle dans l'accouplement, être utilisés comme moyens de défense (comme chez le pince-oreille) ou être réduits à une structure vestigiale.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Odonates</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les odonates, le mâle possède à l'extrémité postérieure de l'abdomen une paire d'appendices anaux supérieurs que l'on nomme « cerques ». Ces crochets copulatoires permettent d'accrocher la femelle derrière la tête durant l'accouplement. Ces pièces copulatrices accessoires sont uniques à chaque espèce et permettent l'identification de celle-ci[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les odonates, le mâle possède à l'extrémité postérieure de l'abdomen une paire d'appendices anaux supérieurs que l'on nomme « cerques ». Ces crochets copulatoires permettent d'accrocher la femelle derrière la tête durant l'accouplement. Ces pièces copulatrices accessoires sont uniques à chaque espèce et permettent l'identification de celle-ci.
 			Cerques chez une libellule (Anisoptera)
 			Cerques chez une demoiselle (Zygoptera)
 </t>
@@ -548,7 +562,9 @@
           <t>Naïades</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les naïades (larves) des odonates, des éphémères et des plécoptères, on retrouve également ces appendices caudaux à l'extrémité de l'abdomen.
 </t>
